--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions Concentrations" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Gas Phase Chemistry" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Stratospheric Heterogeneous " sheetId="7" r:id="rId7"/>
-    <sheet name="7. Tropospheric Heterogeneous C" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Photo Chemistry" sheetId="9" r:id="rId9"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -54,28 +55,37 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>5. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>6. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>7. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Photo Chemistry</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>6. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>7. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>9. Photo Chemistry</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -87,34 +97,61 @@
     <t>Specialization Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the atmospheric chemistry</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -129,7 +166,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -144,7 +181,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -159,9 +196,6 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Troposhere</t>
   </si>
   <si>
@@ -177,7 +211,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -189,7 +223,7 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -204,7 +238,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -219,7 +253,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -234,7 +268,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.1.9 *</t>
+    <t>2.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -246,7 +280,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -255,7 +289,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -267,7 +301,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -279,7 +313,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -291,7 +325,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -300,7 +334,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
@@ -309,7 +343,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -327,7 +361,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -339,7 +373,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -351,7 +385,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.5 </t>
+    <t xml:space="preserve">2.3.5 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -363,7 +397,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.6 </t>
+    <t xml:space="preserve">2.3.6 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -375,7 +409,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>1.3.7 *</t>
+    <t>2.3.7 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -387,7 +421,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.8 *</t>
+    <t>2.3.8 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -423,13 +457,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -441,7 +475,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -453,7 +487,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -465,7 +499,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -477,7 +511,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.5 </t>
+    <t xml:space="preserve">2.4.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -489,7 +523,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.6 </t>
+    <t xml:space="preserve">2.4.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -501,7 +535,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.7 </t>
+    <t xml:space="preserve">2.4.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -513,7 +547,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.8 </t>
+    <t xml:space="preserve">2.4.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -525,7 +559,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.9 </t>
+    <t xml:space="preserve">2.4.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -537,7 +571,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.10 </t>
+    <t xml:space="preserve">2.4.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -549,7 +583,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -558,7 +592,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
@@ -567,7 +601,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -579,7 +613,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -591,7 +625,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -603,7 +637,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -615,7 +649,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -624,7 +658,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -633,7 +667,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -642,7 +676,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -654,7 +688,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -663,7 +697,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
@@ -672,7 +706,7 @@
     <t>cmip6.atmoschem.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -681,7 +715,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -693,7 +727,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -705,7 +739,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -717,7 +751,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.6 </t>
+    <t xml:space="preserve">3.2.6 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -729,7 +763,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -738,7 +772,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -747,7 +781,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -756,7 +790,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -768,7 +802,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.4 </t>
+    <t xml:space="preserve">4.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -780,7 +814,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -789,7 +823,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -798,7 +832,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -807,13 +841,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of  in atmoschem model.</t>
@@ -822,7 +856,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.2 </t>
+    <t xml:space="preserve">5.2.2 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -849,7 +883,7 @@
     <t>Biomass burning</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.3 </t>
+    <t xml:space="preserve">5.2.3 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -870,7 +904,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.4 </t>
+    <t xml:space="preserve">5.2.4 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -882,7 +916,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.5 </t>
+    <t xml:space="preserve">5.2.5 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -894,7 +928,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -906,7 +940,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.7 </t>
+    <t xml:space="preserve">5.2.7 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -918,7 +952,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -927,7 +961,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of to do in atmoschem model.</t>
@@ -936,7 +970,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.2 </t>
+    <t xml:space="preserve">5.3.2 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -954,7 +988,7 @@
     <t>Volcanos</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.3 </t>
+    <t xml:space="preserve">5.3.3 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -963,7 +997,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.4 </t>
+    <t xml:space="preserve">5.3.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -972,7 +1006,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.5 </t>
+    <t xml:space="preserve">5.3.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -981,7 +1015,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.6 </t>
+    <t xml:space="preserve">5.3.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -990,7 +1024,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.7 </t>
+    <t xml:space="preserve">5.3.7 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -999,19 +1033,19 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2 </t>
+    <t xml:space="preserve">5.4.2 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1023,7 +1057,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3 </t>
+    <t xml:space="preserve">5.4.3 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1035,13 +1069,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1050,7 +1084,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1059,7 +1093,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1098,7 +1132,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1110,7 +1144,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.5 *</t>
+    <t>6.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1122,7 +1156,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.6 *</t>
+    <t>6.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1134,7 +1168,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.7 *</t>
+    <t>6.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1146,7 +1180,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.8 *</t>
+    <t>6.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1158,7 +1192,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>5.1.9 *</t>
+    <t>6.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1170,7 +1204,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>5.1.10 *</t>
+    <t>6.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1182,7 +1216,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>5.1.11 *</t>
+    <t>6.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1194,7 +1228,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>5.1.12 *</t>
+    <t>6.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1206,7 +1240,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1215,7 +1249,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1224,7 +1258,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1233,7 +1267,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">7.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1245,7 +1279,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">7.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1272,7 +1306,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>7.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1281,7 +1315,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>7.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1293,7 +1327,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>7.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1305,7 +1339,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1314,7 +1348,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1323,7 +1357,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">8.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1332,7 +1366,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">8.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1341,7 +1375,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1374,7 +1408,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1383,13 +1417,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1398,13 +1432,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">9.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1413,7 +1447,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">9.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1422,7 +1456,7 @@
     <t>cmip6.atmoschem.photo_chemistry.overview</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>9.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1434,7 +1468,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>9.2</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1443,7 +1477,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.1 </t>
+    <t xml:space="preserve">9.2.1 </t>
   </si>
   <si>
     <t>Overview of photolysis scheme in atmoschem model.</t>
@@ -1452,7 +1486,7 @@
     <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
   </si>
   <si>
-    <t>8.2.2 *</t>
+    <t>9.2.2 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1467,7 +1501,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.3 </t>
+    <t xml:space="preserve">9.2.3 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1483,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,9 +1559,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1552,14 +1585,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1609,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1626,10 +1667,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1641,11 +1679,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2032,31 +2076,318 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="24" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:29" ht="24" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
+      <c r="B27" s="11"/>
+      <c r="AA27" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="24" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AC27</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD167"/>
   <sheetViews>
@@ -2071,938 +2402,938 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>24</v>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>39</v>
+      <c r="B15" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
+      <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>58</v>
+      <c r="A28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>45</v>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>66</v>
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>69</v>
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>71</v>
+      <c r="A40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>73</v>
+      <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>75</v>
+      <c r="A45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="7" t="s">
-        <v>76</v>
+      <c r="B46" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>78</v>
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>80</v>
+      <c r="A49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>82</v>
+      <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>84</v>
+      <c r="A53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>86</v>
+      <c r="A56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>88</v>
+      <c r="A57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="12" t="s">
-        <v>34</v>
+      <c r="B58" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>90</v>
+      <c r="A62" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="7" t="s">
-        <v>91</v>
+      <c r="B63" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>36</v>
+      <c r="A65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="A66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>96</v>
+      <c r="A69" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>98</v>
+      <c r="A70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>102</v>
+      <c r="A73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>104</v>
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>106</v>
+      <c r="A77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>108</v>
+      <c r="A78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>110</v>
+      <c r="A81" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>112</v>
+      <c r="A82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>114</v>
+      <c r="A85" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>116</v>
+      <c r="A86" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>118</v>
+      <c r="A89" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>120</v>
+      <c r="A90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>122</v>
+      <c r="A93" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>124</v>
+      <c r="A94" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
       <c r="B95" s="11"/>
       <c r="AA95" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AB95" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AE95" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AF95" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AG95" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AH95" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>134</v>
+      <c r="A98" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="7"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>136</v>
+      <c r="A101" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>138</v>
+      <c r="A102" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>140</v>
+      <c r="A105" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>142</v>
+      <c r="A106" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>144</v>
+      <c r="A109" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>146</v>
+      <c r="A110" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>148</v>
+      <c r="A113" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>150</v>
+      <c r="A114" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>152</v>
+      <c r="A117" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>154</v>
+      <c r="A118" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>156</v>
+      <c r="A121" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>158</v>
+      <c r="A122" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>160</v>
+      <c r="A125" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>162</v>
+      <c r="A126" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>164</v>
+      <c r="A129" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>166</v>
+      <c r="A130" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>168</v>
+      <c r="A133" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>170</v>
+      <c r="A134" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>172</v>
+      <c r="A137" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>174</v>
+      <c r="A138" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>176</v>
+      <c r="A142" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="7" t="s">
-        <v>177</v>
+      <c r="B143" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>36</v>
+      <c r="A145" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>180</v>
+      <c r="A146" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>182</v>
+      <c r="A149" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>184</v>
+      <c r="A150" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="12" t="s">
-        <v>39</v>
+      <c r="B151" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="178" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>186</v>
+      <c r="A154" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>188</v>
+      <c r="A155" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="12" t="s">
-        <v>34</v>
+      <c r="B156" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>190</v>
+      <c r="A159" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>192</v>
+      <c r="A160" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="12" t="s">
-        <v>34</v>
+      <c r="B161" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="11"/>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>194</v>
+      <c r="A164" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>196</v>
+      <c r="A165" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="12" t="s">
-        <v>34</v>
+      <c r="B166" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -3081,7 +3412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3096,229 +3427,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>198</v>
+      <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>199</v>
+      <c r="B2" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>202</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>205</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>207</v>
+      <c r="A13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>209</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>211</v>
+      <c r="A18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>212</v>
+      <c r="B19" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
+      <c r="A21" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>215</v>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
+      <c r="A25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>218</v>
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>220</v>
+      <c r="A29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>222</v>
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>224</v>
+      <c r="A33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>226</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>228</v>
+      <c r="A37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>232</v>
+      <c r="A41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>234</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3343,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -3358,111 +3689,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>236</v>
+      <c r="A1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>237</v>
+      <c r="B2" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>240</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>243</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>245</v>
+      <c r="A13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>247</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>249</v>
+      <c r="A17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>251</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>39</v>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3478,7 +3809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD105"/>
   <sheetViews>
@@ -3493,606 +3824,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>253</v>
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>254</v>
+      <c r="B2" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>257</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>260</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>262</v>
+      <c r="A14" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
+      <c r="A17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>265</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>267</v>
+      <c r="A21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>269</v>
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="12" t="s">
-        <v>45</v>
+      <c r="B23" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="5" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
+      <c r="A26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>277</v>
+      <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>45</v>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="11"/>
       <c r="AA29" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>283</v>
+      <c r="A31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>285</v>
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="12" t="s">
-        <v>34</v>
+      <c r="B33" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>287</v>
+      <c r="A36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>289</v>
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="12" t="s">
-        <v>34</v>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>291</v>
+      <c r="A41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>293</v>
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>34</v>
+      <c r="B43" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>295</v>
+      <c r="A46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>297</v>
+      <c r="A47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>34</v>
+      <c r="B48" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>299</v>
+      <c r="A52" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>300</v>
+      <c r="B53" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>36</v>
+      <c r="A55" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>303</v>
+      <c r="A56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>267</v>
+      <c r="A59" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>306</v>
+      <c r="A60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>45</v>
+      <c r="B61" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>96</v>
+      <c r="A64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>312</v>
+      <c r="A65" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>45</v>
+      <c r="B66" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AE67" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>283</v>
+      <c r="A69" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>315</v>
+      <c r="A70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="B71" s="12" t="s">
-        <v>34</v>
+      <c r="B71" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>287</v>
+      <c r="A74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>318</v>
+      <c r="A75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="B76" s="12" t="s">
-        <v>34</v>
+      <c r="B76" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
       <c r="B77" s="11"/>
     </row>
     <row r="79" spans="1:31" ht="24" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>291</v>
+      <c r="A79" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>321</v>
+      <c r="A80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="12" t="s">
-        <v>34</v>
+      <c r="B81" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>295</v>
+      <c r="A84" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>324</v>
+      <c r="A85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>34</v>
+      <c r="B86" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>326</v>
+      <c r="A90" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="7" t="s">
-        <v>300</v>
+      <c r="B91" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>36</v>
+      <c r="A93" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>328</v>
+      <c r="A94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>330</v>
+      <c r="A97" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>332</v>
+      <c r="A98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="12" t="s">
-        <v>34</v>
+      <c r="B99" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>334</v>
+      <c r="A102" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>336</v>
+      <c r="A103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>34</v>
+      <c r="B104" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4117,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD52"/>
   <sheetViews>
@@ -4132,317 +4463,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>156</v>
+      <c r="A1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>338</v>
+      <c r="B2" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>341</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>344</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>346</v>
+      <c r="A13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>348</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>359</v>
+      <c r="A18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>361</v>
+      <c r="A19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>363</v>
+      <c r="A22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>365</v>
+      <c r="A23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>367</v>
+      <c r="A26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>369</v>
+      <c r="A27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>371</v>
+      <c r="A30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>373</v>
+      <c r="A31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>375</v>
+      <c r="A34" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>377</v>
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>379</v>
+      <c r="A38" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>381</v>
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>383</v>
+      <c r="A42" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>385</v>
+      <c r="A43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>387</v>
+      <c r="A46" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>389</v>
+      <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>391</v>
+      <c r="A50" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>393</v>
+      <c r="A51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4485,7 +4816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -4500,206 +4831,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>395</v>
+      <c r="A1" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>396</v>
+      <c r="B2" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>399</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>402</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>404</v>
+      <c r="A13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>406</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>408</v>
+      <c r="A18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>410</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>379</v>
+      <c r="A23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>418</v>
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>420</v>
+      <c r="A27" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>422</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>424</v>
+      <c r="A31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>426</v>
+      <c r="A32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4727,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -4742,212 +5073,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>428</v>
+      <c r="A1" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>429</v>
+      <c r="B2" s="13" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>432</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>435</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>404</v>
+      <c r="A13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>438</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>408</v>
+      <c r="A18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>441</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>379</v>
+      <c r="A23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>452</v>
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>383</v>
+      <c r="A27" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>454</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>424</v>
+      <c r="A31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>457</v>
+      <c r="A32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4970,203 +5301,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
@@ -46,7 +46,7 @@
     <t>MIROC-ES2H</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmospheric Chemistry</t>

--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
@@ -8,22 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
-    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
-    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -52,34 +52,31 @@
     <t>Atmospheric Chemistry</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>6. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>7. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>9. Photo Chemistry</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>5. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>6. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>7. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Photo Chemistry</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -100,58 +97,73 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the atmospheric chemistry</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the atmospheric chemistry</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -166,7 +178,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -181,7 +193,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -196,7 +208,7 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Troposhere</t>
+    <t>Troposphere</t>
   </si>
   <si>
     <t>Stratosphere</t>
@@ -208,10 +220,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -223,7 +235,7 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -238,7 +250,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -253,7 +265,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -268,7 +280,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.1.9 *</t>
+    <t>1.1.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -280,7 +292,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -289,7 +301,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -301,7 +313,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -313,7 +325,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -325,7 +337,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -334,16 +346,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -361,7 +364,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -373,7 +376,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -385,7 +388,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.5 </t>
+    <t xml:space="preserve">1.3.1.4 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -397,7 +400,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">1.3.1.5 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -409,7 +412,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>2.3.7 *</t>
+    <t>1.3.1.6 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -421,7 +424,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.8 *</t>
+    <t>1.3.1.7 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -457,13 +460,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
+    <t xml:space="preserve">1.3.2.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -475,7 +478,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.3.2.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -487,7 +490,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.3.2.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -499,7 +502,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.3.2.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -511,7 +514,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.5 </t>
+    <t xml:space="preserve">1.3.2.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -523,7 +526,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.6 </t>
+    <t xml:space="preserve">1.3.2.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -535,7 +538,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.7 </t>
+    <t xml:space="preserve">1.3.2.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -547,7 +550,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.8 </t>
+    <t xml:space="preserve">1.3.2.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -559,7 +562,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.9 </t>
+    <t xml:space="preserve">1.3.2.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -571,7 +574,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.10 </t>
+    <t xml:space="preserve">1.3.2.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -583,7 +586,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -592,16 +595,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.4.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -613,7 +607,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -625,7 +619,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -637,7 +631,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -649,7 +643,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -658,7 +652,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -667,7 +661,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -676,7 +670,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -688,7 +682,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -697,16 +691,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -715,7 +700,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -727,7 +712,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -739,7 +724,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -751,7 +736,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.6 </t>
+    <t xml:space="preserve">2.2.1.5 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -763,7 +748,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -772,7 +757,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -781,7 +766,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -790,7 +775,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -802,7 +787,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">3.1.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -814,7 +799,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -823,7 +808,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -832,7 +817,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -841,22 +826,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.2 </t>
+    <t xml:space="preserve">4.2.1.1 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -883,7 +859,7 @@
     <t>Biomass burning</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.3 </t>
+    <t xml:space="preserve">4.2.1.2 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -904,7 +880,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.4 </t>
+    <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -916,7 +892,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.5 </t>
+    <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -928,7 +904,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.6 </t>
+    <t xml:space="preserve">4.2.1.5 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -940,7 +916,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.7 </t>
+    <t xml:space="preserve">4.2.1.6 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -952,7 +928,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>4.3.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -961,16 +937,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of to do in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2 </t>
+    <t xml:space="preserve">4.3.1.1 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -988,7 +955,7 @@
     <t>Volcanos</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.3 </t>
+    <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -997,7 +964,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.4 </t>
+    <t xml:space="preserve">4.3.1.3 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -1006,7 +973,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.5 </t>
+    <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -1015,7 +982,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.6 </t>
+    <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -1024,7 +991,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.7 </t>
+    <t xml:space="preserve">4.3.1.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -1033,19 +1000,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>4.4.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.1 </t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2 </t>
+    <t xml:space="preserve">4.4.1.1 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1057,7 +1018,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.3 </t>
+    <t xml:space="preserve">4.4.1.2 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1069,13 +1030,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1084,7 +1045,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1093,7 +1054,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1132,7 +1093,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>6.1.4 *</t>
+    <t>5.1.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1144,7 +1105,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>5.1.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1156,7 +1117,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>5.1.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1168,7 +1129,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>5.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1180,7 +1141,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.8 *</t>
+    <t>5.1.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1192,7 +1153,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>6.1.9 *</t>
+    <t>5.1.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1204,7 +1165,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.10 *</t>
+    <t>5.1.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1216,7 +1177,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>6.1.11 *</t>
+    <t>5.1.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1228,7 +1189,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>6.1.12 *</t>
+    <t>5.1.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1240,7 +1201,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1249,7 +1210,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1258,7 +1219,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1267,7 +1228,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">6.1.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1279,7 +1240,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">6.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1306,7 +1267,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>6.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1315,7 +1276,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>6.1.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1327,7 +1288,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>6.1.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1339,7 +1300,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1348,7 +1309,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1357,7 +1318,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">7.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1366,7 +1327,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.3 </t>
+    <t xml:space="preserve">7.1.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1375,7 +1336,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1408,7 +1369,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1417,13 +1378,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1432,13 +1393,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>8.1.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.1 </t>
+    <t xml:space="preserve">8.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1447,7 +1408,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.2 </t>
+    <t xml:space="preserve">8.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1456,7 +1417,7 @@
     <t>cmip6.atmoschem.photo_chemistry.overview</t>
   </si>
   <si>
-    <t>9.1.3 *</t>
+    <t>8.1.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1468,7 +1429,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>9.2</t>
+    <t>8.2.1</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1477,16 +1438,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of photolysis scheme in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
-  </si>
-  <si>
-    <t>9.2.2 *</t>
+    <t>8.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1501,7 +1453,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.3 </t>
+    <t xml:space="preserve">8.2.1.2 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1517,7 +1469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,13 +1492,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1565,6 +1523,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1572,21 +1537,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1599,8 +1551,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1650,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1664,31 +1629,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1985,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2076,39 +2044,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2116,97 +2099,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>473</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>476</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>478</v>
+      <c r="A13" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>480</v>
+      <c r="A14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2214,99 +2197,77 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
+      <c r="A21" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>486</v>
+      <c r="A22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11"/>
+      <c r="AA23" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>107</v>
+      <c r="A25" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>488</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="B27" s="11"/>
-      <c r="AA27" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,342 +2276,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD167"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>46</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>51</v>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>53</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>56</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>63</v>
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>65</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>67</v>
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
-      <c r="AA30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>61</v>
+      <c r="AA30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
+      <c r="A32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
+      <c r="A33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
+      <c r="A36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
+      <c r="A37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>84</v>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -2658,83 +2642,83 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
+      <c r="A48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>91</v>
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
+      <c r="A52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
+      <c r="A53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>97</v>
+      <c r="A56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>99</v>
+      <c r="A57" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>46</v>
+      <c r="B58" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -2742,602 +2726,558 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>48</v>
+      <c r="A65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
+      <c r="A66" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="B67" s="11"/>
+      <c r="AA67" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>107</v>
+      <c r="A69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>109</v>
+      <c r="A70" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
-      <c r="AA71" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB71" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC71" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>113</v>
+      <c r="A73" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>115</v>
+      <c r="A74" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>117</v>
+      <c r="A77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>119</v>
+      <c r="A78" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>121</v>
+      <c r="A81" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>123</v>
+      <c r="A82" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>125</v>
+      <c r="A85" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>127</v>
+      <c r="A86" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>129</v>
+      <c r="A89" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>131</v>
+      <c r="A90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>133</v>
+      <c r="AA91" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG91" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI91" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>135</v>
+      <c r="A94" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-      <c r="AA95" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB95" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC95" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD95" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE95" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF95" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG95" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI95" s="5" t="s">
-        <v>61</v>
+      <c r="B95" s="13"/>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>145</v>
+      <c r="A98" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>147</v>
+      <c r="A101" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>149</v>
+      <c r="A102" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>151</v>
+      <c r="A105" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>153</v>
+      <c r="A106" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>155</v>
+      <c r="A109" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>157</v>
+      <c r="A110" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>159</v>
+      <c r="A113" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>161</v>
+      <c r="A114" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>163</v>
+      <c r="A117" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>165</v>
+      <c r="A118" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>167</v>
+      <c r="A121" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>169</v>
+      <c r="A122" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>171</v>
+      <c r="A125" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>173</v>
+      <c r="A126" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>175</v>
+      <c r="A129" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>177</v>
+      <c r="A130" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>179</v>
+      <c r="A133" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>181</v>
+      <c r="A134" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11"/>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>185</v>
+      <c r="A138" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="11"/>
+      <c r="B139" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="A141" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>187</v>
+      <c r="A142" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="B143" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="178" customHeight="1">
+      <c r="B144" s="11"/>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="8" t="s">
-        <v>29</v>
+      <c r="A146" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="A147" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="B149" s="11"/>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="A151" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="B153" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="B154" s="11"/>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="10" t="s">
-        <v>46</v>
+      <c r="A156" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="A157" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="B158" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="B167" s="11"/>
+      <c r="B159" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="22">
@@ -3356,8 +3296,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>AA71:AC71</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>AA67:AC67</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
@@ -3365,17 +3308,17 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>AA91:AI91</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AI95</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
       <formula1>0</formula1>
@@ -3402,9 +3345,6 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3414,97 +3354,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3512,161 +3452,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3683,117 +3601,117 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>251</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>254</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>256</v>
+      <c r="A13" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>258</v>
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>260</v>
+      <c r="A17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>262</v>
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>51</v>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3811,75 +3729,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+  <dimension ref="A1:XFD93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>268</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>271</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3887,561 +3805,495 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="AA20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB20" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="AC20" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="AD20" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="AE20" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="AF20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="24" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="AA24" s="5" t="s">
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="AA25" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AB24" s="5" t="s">
+      <c r="AB25" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC25" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD25" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AE25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AF24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
-      <c r="AA29" s="5" t="s">
+      <c r="B29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="32" spans="1:32" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="B32" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AC29" s="5" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="C33" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="AE29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B48" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="B49" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="9" t="s">
+    </row>
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
+      <c r="B51" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C52" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="53" spans="1:31" ht="24" customHeight="1">
+      <c r="B53" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="AB54" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC54" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="AD54" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="AE54" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="13" t="s">
+      <c r="B56" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="C57" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="B58" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="11"/>
+      <c r="AA59" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="B66" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="B61" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-      <c r="AA62" s="5" t="s">
+      <c r="C67" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AB62" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC62" s="5" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="B68" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AD62" s="5" t="s">
+      <c r="B71" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="AE62" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="C72" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="B73" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="B76" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-      <c r="AA67" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE67" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="C77" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="B82" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="74" spans="1:31" ht="24" customHeight="1">
-      <c r="A74" s="7" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C75" s="9" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="B76" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:31" ht="24" customHeight="1">
-      <c r="A79" s="7" t="s">
+      <c r="C86" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="7" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="13" t="s">
-        <v>311</v>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B93" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AF24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AE29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AE62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AE67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AF20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AE25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AE54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>AA59:AE59</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4457,323 +4309,323 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>352</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>355</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>357</v>
+      <c r="A13" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>359</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>61</v>
+      <c r="AA16" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>370</v>
+      <c r="A18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>372</v>
+      <c r="A19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>374</v>
+      <c r="A22" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>376</v>
+      <c r="A23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>378</v>
+      <c r="A26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>380</v>
+      <c r="A27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>382</v>
+      <c r="A30" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>384</v>
+      <c r="A31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>386</v>
+      <c r="A34" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>388</v>
+      <c r="A35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>390</v>
+      <c r="A38" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>392</v>
+      <c r="A39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>394</v>
+      <c r="A42" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>396</v>
+      <c r="A43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>398</v>
+      <c r="A46" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>400</v>
+      <c r="A47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>402</v>
+      <c r="A50" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>404</v>
+      <c r="A51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4825,212 +4677,212 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>410</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>413</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>415</v>
+      <c r="A13" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>417</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>361</v>
+      <c r="AA16" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>419</v>
+      <c r="A18" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>421</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>426</v>
+      <c r="AA21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>390</v>
+      <c r="A23" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>429</v>
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>431</v>
+      <c r="A27" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>433</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>435</v>
+      <c r="A31" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>437</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -5067,218 +4919,218 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>443</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>446</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>415</v>
+      <c r="A13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>449</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>46</v>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>419</v>
+      <c r="A18" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>452</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>460</v>
+      <c r="AA21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>390</v>
+      <c r="A23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>463</v>
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>394</v>
+      <c r="A27" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>465</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>435</v>
+      <c r="A31" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>468</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">

--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kengo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C257CC-2AE8-4924-B34F-C72E64BE2BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="915" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,20 @@
     <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
     <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="522">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1463,17 +1477,205 @@
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.environmental_conditions</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Sudo-Kengo</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CHASER</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Numaguti-1997</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Akiyoshi-2009</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>CHASER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>MIROC-ESM)</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>chemistry climate model, chemistry aerosol coupling, ozone, methane, CO, NOx, HOx, VOCs, sulfate, nitrate, BC, OC, SOA</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The MIROC-ESM (Watanabe et al., 2011) considers detailed photochemistry in the troposphere and stratosphere. Chemistry component of the model, based on CHASER-V4.0, calculates the concentrations of 92 chemical species and 262 chemical reactions (58 photolytic, 183 kinetic, and 21 heterogeneous reactions). In the framework of MIROC-ESM,  CHASER is coupled with the aerosol model SPRINTARS for simulating sulfate-nitrate-ammonium system,  SOA formation, BC aging. More details on CHASER can be found in Morgenstern et al. (2017). </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>V4.0</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>fortran</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">global mean CH4 lifetime (OH), chemical production, STE, and burden of O3, LNOx production, radiative forcings  </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CH4, O3, aerosols, radiative forcings</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>concentrations around Asia (China, Japan)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T42/T85</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T42L81 for chemistry and T85L81 for dynamics and physics</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2.8deg for chemistry and 1.4deg for dynamics and physics</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Our basic tuning targets are ozone abundances/distributions/budgets in the troposphere and stratosphere, tropospheric methane (abundance and trend) and its lifetime  (mean OH concentration), NOx(NO2)/CO/aerosols distributions as observed by the satellite sensors, and seasonal cycles of the concentrations at the observational sites mostly in Asia (China and Japan areas). As the tuning knob, we consider emissions (particularly for natural sources like lightning/soil NOx, BVOCs), deposition (dry and wet), formation of SOA, and aging of BC. In the present model coding, the relative weight for tuning would be on the chemistry/aerosol part (process oriented metrics) rather than on pure climate performance. Possible conflicts may occor with respect to inclusion of nitrate/SOA formation and aging process of BC to this version of MIROC model which can deteriolate climate simulation performance.  </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FFSL</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Grid-scale transport is simulated by flux-form semi-Lagrangian (FFSL) scheme with sub-grid scale transport calculated in the schemes of convection and vertical diffusion.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Biogenic C2H6, C3H8, C2H4, and C3H6 (other VOCs like isoprene are calculated by VISIT or MEGAN model), and volcanic SO2.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CFCs, N2O, OCS as concentrations</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BVOCs (Isoprene, Terpenes, Acetone, Methanol), dust, sea-salt, DMS</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>NOx, CO, CH4, C2H6, C3H8, C2H4, C3H6, acetone, CH3OH, SO2, NH3, CH3CCl3, BC/OC for anthropogenic and biomass burning</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>from files</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>volcanic SO2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Lightning NOx, biomass burning (all emitted species)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>aircraft NOx and BC (specified with external files)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>NHx</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CH4</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>N2O</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>PANs</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>H2O2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ROOH</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>MGLY</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>terpenes</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CH3OH, HO2, N2O5, HOC2H4O2, HOC3H6O2, ISO2, MACRO2, CH3COO2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>fully on-line reflecting temperature and pressure for calculating cross-sections and quantum yields.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Watanabe_2011</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Morgenstern_2017</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sudo_2002</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Akiyoshi_2009</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1570,6 +1772,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1661,15 +1877,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1711,7 +1935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,9 +1967,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1777,6 +2019,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1952,24 +2212,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2009,42 +2271,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20.25">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20.25">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20.25">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -2068,7 +2330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2076,39 +2338,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20.25">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="20.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2144,7 +2409,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2170,7 +2437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
@@ -2193,7 +2460,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
@@ -2228,7 +2497,9 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>473</v>
       </c>
@@ -2259,14 +2530,17 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
@@ -2275,19 +2549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.75" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2314,7 +2590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -2322,11 +2598,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2342,7 +2622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
@@ -2350,39 +2630,95 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="36">
+      <c r="A21" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="36">
+      <c r="A22" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2418,7 +2754,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2445,7 +2783,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2471,8 +2811,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -2499,7 +2841,9 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AA21" s="6" t="s">
         <v>61</v>
       </c>
@@ -2519,832 +2863,1111 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="22" spans="1:32" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="24" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:32" ht="24" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="26" spans="1:32" ht="24" customHeight="1">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:32" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
+    <row r="31" spans="1:32" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AA31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="12" t="s">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="13" t="s">
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="12" t="s">
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="B60" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="13" t="s">
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B64" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+    <row r="66" spans="1:29" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
+    <row r="67" spans="1:29" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-      <c r="AA67" s="6" t="s">
+    <row r="68" spans="1:29" ht="24" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA68" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AB67" s="6" t="s">
+      <c r="AB68" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AC67" s="6" t="s">
+      <c r="AC68" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
+    <row r="70" spans="1:29" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
+    <row r="71" spans="1:29" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
+    <row r="72" spans="1:29" ht="24" customHeight="1">
+      <c r="B72" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="75" spans="1:29" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
+    <row r="76" spans="1:29" ht="24" customHeight="1">
+      <c r="B76" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
+    <row r="79" spans="1:29" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
+    <row r="80" spans="1:29" ht="24" customHeight="1">
+      <c r="B80" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
+    <row r="83" spans="1:35" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="84" spans="1:35" ht="24" customHeight="1">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="86" spans="1:35" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B86" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
+    <row r="87" spans="1:35" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
+    <row r="88" spans="1:35" ht="24" customHeight="1">
+      <c r="B88" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
+    <row r="91" spans="1:35" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-      <c r="AA91" s="6" t="s">
+    <row r="92" spans="1:35" ht="24" customHeight="1">
+      <c r="B92" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="AB91" s="6" t="s">
+      <c r="AA92" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB92" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AC91" s="6" t="s">
+      <c r="AC92" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AD91" s="6" t="s">
+      <c r="AD92" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="AE91" s="6" t="s">
+      <c r="AE92" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AF91" s="6" t="s">
+      <c r="AF92" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AG91" s="6" t="s">
+      <c r="AG92" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="AH91" s="6" t="s">
+      <c r="AH92" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AI91" s="6" t="s">
+      <c r="AI92" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="12" t="s">
+    <row r="95" spans="1:35" ht="24" customHeight="1">
+      <c r="A95" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B95" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="13"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
+    <row r="96" spans="1:35" ht="24" customHeight="1">
+      <c r="B96" s="13"/>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="9" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="B100" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="14" t="s">
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="11"/>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="B104" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="A106" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B106" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="B107" s="11"/>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="B108" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="A110" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="14" t="s">
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="B112" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="A118" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="14" t="s">
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="B120" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="A122" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B122" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="14" t="s">
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="A123" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="B124" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="A126" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B126" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="14" t="s">
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="B128" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="A130" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B130" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="14" t="s">
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="A131" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B131" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="B131" s="11"/>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="B132" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="14" t="s">
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="A135" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="12" t="s">
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="B136" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B139" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="13" t="s">
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="B140" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="9" t="s">
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="14" t="s">
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="8" t="s">
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="B144" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="178" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
+    <row r="145" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B145" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="A147" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B147" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="B149" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="9" t="s">
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="B150" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B152" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="14" t="s">
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="A153" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B153" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="B153" s="8" t="s">
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="B154" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="11"/>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="B155" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="A157" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B157" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="14" t="s">
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="A158" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B158" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="B158" s="8" t="s">
+    <row r="159" spans="1:3" ht="24" customHeight="1">
+      <c r="B159" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="11"/>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="B160" s="11" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B22" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA21:AF21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AB30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA31:AB31</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B136 B132 B128 B124 B120 B116 B112 B108 B104 B100 B88 B80 B76 B72" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B84 B43" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>AA68:AC68</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+      <formula1>AA92:AI92</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
+      <c r="B31" s="11">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AC67</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AI91</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3352,258 +3975,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -3639,7 +4024,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3665,8 +4052,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -3688,7 +4077,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -3714,12 +4105,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
+    <row r="20" spans="1:3" ht="177.95" customHeight="1">
       <c r="B20" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3728,17 +4120,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AF105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -3800,7 +4194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3839,7 +4233,9 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>273</v>
       </c>
@@ -3859,441 +4255,713 @@
         <v>65</v>
       </c>
     </row>
+    <row r="21" spans="1:32" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="24" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="24" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
+    <row r="27" spans="1:32" ht="24" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="B24" s="10" t="s">
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
+    <row r="29" spans="1:32" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AA29" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB29" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AC29" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AD29" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AE29" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="8" t="s">
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="8" t="s">
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="B41" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="14" t="s">
+    <row r="50" spans="1:31" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="8" t="s">
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="12" t="s">
+    <row r="52" spans="1:31" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="24" customHeight="1">
+      <c r="A55" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B55" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="B49" s="13" t="s">
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="B56" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="A58" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="10" t="s">
+    <row r="60" spans="1:31" ht="24" customHeight="1">
+      <c r="B60" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
+    <row r="61" spans="1:31" ht="24" customHeight="1">
+      <c r="B61" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AB54" s="6" t="s">
+      <c r="AA61" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB61" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AC54" s="6" t="s">
+      <c r="AC61" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AD54" s="6" t="s">
+      <c r="AD61" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AE54" s="6" t="s">
+      <c r="AE61" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="B62" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE64" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
+    <row r="67" spans="1:31" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
+    <row r="68" spans="1:31" ht="24" customHeight="1">
+      <c r="B68" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="AA59" s="6" t="s">
+    <row r="69" spans="1:31" ht="24" customHeight="1">
+      <c r="B69" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AB59" s="6" t="s">
+      <c r="AA69" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB69" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC59" s="6" t="s">
+      <c r="AC69" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AD59" s="6" t="s">
+      <c r="AD69" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AE59" s="6" t="s">
+      <c r="AE69" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+    <row r="70" spans="1:31" ht="24" customHeight="1">
+      <c r="B70" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="24" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
+    <row r="74" spans="1:31" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="8" t="s">
+    <row r="75" spans="1:31" ht="24" customHeight="1">
+      <c r="B75" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
+    <row r="76" spans="1:31" ht="24" customHeight="1">
+      <c r="B76" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
+    <row r="79" spans="1:31" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="8" t="s">
+    <row r="80" spans="1:31" ht="24" customHeight="1">
+      <c r="B80" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="B73" s="8" t="s">
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="B85" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="B86" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="A89" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="B90" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B94" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="B95" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="B99" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="B100" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="B104" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B24" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA20:AF20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AE25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AE54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>AA59:AE59</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B71 B61:B64 B29:B32" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>AA29:AE29</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4301,17 +4969,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AJ61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
@@ -4347,7 +5017,9 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4373,7 +5045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="178" customHeight="1">
+    <row r="11" spans="1:36" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
@@ -4401,7 +5073,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>347</v>
+      </c>
       <c r="AA16" s="6" t="s">
         <v>347</v>
       </c>
@@ -4433,234 +5107,574 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+    <row r="17" spans="1:36" ht="24" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="24" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="24" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="24" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
+    <row r="28" spans="1:36" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="29" spans="1:36" ht="24" customHeight="1">
+      <c r="B29" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
+    <row r="32" spans="1:36" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="B33" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="B37" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="B41" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="14" t="s">
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="14" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="B61" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B25" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA16:AJ16</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B49 B45 B41 B37 B33" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B61 B57" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4669,17 +5683,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
@@ -4715,7 +5731,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4741,7 +5759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
+    <row r="11" spans="1:29" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
@@ -4769,7 +5787,9 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="AA16" s="6" t="s">
         <v>350</v>
       </c>
@@ -4780,129 +5800,223 @@
         <v>348</v>
       </c>
     </row>
+    <row r="17" spans="1:31" ht="24" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="24" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
+    <row r="21" spans="1:31" ht="24" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
+    <row r="22" spans="1:31" ht="24" customHeight="1">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="AA21" s="6" t="s">
+    <row r="23" spans="1:31" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AA23" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:31" ht="24" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
+    <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="B34" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="B38" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B18" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>AA16:AC16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AE21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B26" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>AA23:AE23</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B38" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4911,17 +6025,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -4957,7 +6073,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4983,7 +6101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
@@ -5011,7 +6129,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -5038,7 +6158,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="AA21" s="6" t="s">
         <v>409</v>
       </c>
@@ -5070,84 +6192,368 @@
         <v>447</v>
       </c>
     </row>
+    <row r="22" spans="1:36" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>377</v>
+      <c r="B23" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>450</v>
+      <c r="B24" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>381</v>
+      <c r="B27" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>452</v>
+      <c r="B28" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="B33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B36" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="B37" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="B41" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B29" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA21:AJ21</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B41" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kengo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C257CC-2AE8-4924-B34F-C72E64BE2BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="915" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -24,20 +18,12 @@
     <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
     <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="507">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -177,6 +163,9 @@
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
+    <t>CHASER　(MIROC-ESM)</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -192,6 +181,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>chemistry climate model, chemistry aerosol coupling, ozone, methane, CO, NOx, HOx, VOCs, sulfate, nitrate, BC, OC, SOA</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -207,6 +199,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t xml:space="preserve">The MIROC-ESM (Watanabe et al., 2011) considers detailed photochemistry in the troposphere and stratosphere. Chemistry component of the model, based on CHASER-V4.0, calculates the concentrations of 92 chemical species and 262 chemical reactions (58 photolytic, 183 kinetic, and 21 heterogeneous reactions). In the framework of MIROC-ESM,  CHASER is coupled with the aerosol model SPRINTARS for simulating sulfate-nitrate-ammonium system,  SOA formation, BC aging. More details on CHASER can be found in Morgenstern et al. (2017). </t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -225,18 +220,24 @@
     <t>Troposphere</t>
   </si>
   <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
     <t>Stratosphere</t>
   </si>
   <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
     <t>1.1.1.5 *</t>
   </si>
   <si>
@@ -339,6 +340,9 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
+    <t>V4.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
@@ -351,6 +355,9 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>fortran</t>
+  </si>
+  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -372,12 +379,12 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Integrated</t>
+  </si>
+  <si>
     <t>Operator splitting</t>
   </si>
   <si>
-    <t>Integrated</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
@@ -621,6 +628,9 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t xml:space="preserve">Our basic tuning targets are ozone abundances/distributions/budgets in the troposphere and stratosphere, tropospheric methane (abundance and trend) and its lifetime  (mean OH concentration), NOx(NO2)/CO/aerosols distributions as observed by the satellite sensors, and seasonal cycles of the concentrations at the observational sites mostly in Asia (China and Japan areas). As the tuning knob, we consider emissions (particularly for natural sources like lightning/soil NOx, BVOCs), deposition (dry and wet), formation of SOA, and aging of BC. In the present model coding, the relative weight for tuning would be on the chemistry/aerosol part (process oriented metrics) rather than on pure climate performance. Possible conflicts may occor with respect to inclusion of nitrate/SOA formation and aging process of BC to this version of MIROC model which can deteriolate climate simulation performance.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -633,6 +643,9 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
+    <t xml:space="preserve">global mean CH4 lifetime (OH), chemical production, STE, and burden of O3, LNOx production, radiative forcings  </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
@@ -645,6 +658,9 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
+    <t>concentrations around Asia (China, Japan)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
@@ -675,6 +691,9 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
+    <t>T42/T85</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
@@ -714,6 +733,9 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
+    <t>T42L81 for chemistry and T85L81 for dynamics and physics</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
@@ -726,6 +748,9 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
+    <t>2.8deg for chemistry and 1.4deg for dynamics and physics</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
@@ -780,6 +805,9 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
+    <t>FFSL</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
@@ -789,6 +817,9 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
+    <t>Grid-scale transport is simulated by flux-form semi-Lagrangian (FFSL) scheme with sub-grid scale transport calculated in the schemes of convection and vertical diffusion.</t>
+  </si>
+  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -894,6 +925,9 @@
     <t>Interactive</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
@@ -906,6 +940,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
+    <t>Biogenic C2H6, C3H8, C2H4, and C3H6 (other VOCs like isoprene are calculated by VISIT or MEGAN model), and volcanic SO2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
@@ -918,6 +955,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
+    <t>CFCs, N2O, OCS as concentrations</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.5 </t>
   </si>
   <si>
@@ -930,6 +970,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
+    <t>BVOCs (Isoprene, Terpenes, Acetone, Methanol), dust, sea-salt, DMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.6 </t>
   </si>
   <si>
@@ -942,6 +985,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
+    <t>NOx, CO, CH4, C2H6, C3H8, C2H4, C3H6, acetone, CH3OH, SO2, NH3, CH3CCl3, BC/OC for anthropogenic and biomass burning</t>
+  </si>
+  <si>
     <t>4.3.1</t>
   </si>
   <si>
@@ -987,6 +1033,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
+    <t>volcanic SO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
@@ -1005,6 +1054,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
+    <t>Lightning NOx, biomass burning (all emitted species)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.6 </t>
   </si>
   <si>
@@ -1014,6 +1066,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
+    <t>aircraft NOx and BC (specified with external files)</t>
+  </si>
+  <si>
     <t>4.4.1</t>
   </si>
   <si>
@@ -1059,6 +1114,9 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
+    <t>CHASER</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
@@ -1101,12 +1159,15 @@
     <t>VOCs</t>
   </si>
   <si>
+    <t>isoprene</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
     <t>Isoprene</t>
   </si>
   <si>
-    <t>H2O</t>
-  </si>
-  <si>
     <t>5.1.1.4 *</t>
   </si>
   <si>
@@ -1233,6 +1294,9 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
+    <t>Akiyoshi-2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
@@ -1350,6 +1414,9 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
+    <t>CH3OH, HO2, N2O5, HOC2H4O2, HOC3H6O2, ISO2, MACRO2, CH3COO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
@@ -1458,15 +1525,15 @@
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
   </si>
   <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>Offline (clear sky)</t>
   </si>
   <si>
     <t>Offline (with clouds)</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.2.1.2 </t>
   </si>
   <si>
@@ -1477,205 +1544,17 @@
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.environmental_conditions</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Sudo-Kengo</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>CHASER</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Numaguti-1997</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Akiyoshi-2009</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <t>CHASER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>MIROC-ESM)</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>chemistry climate model, chemistry aerosol coupling, ozone, methane, CO, NOx, HOx, VOCs, sulfate, nitrate, BC, OC, SOA</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The MIROC-ESM (Watanabe et al., 2011) considers detailed photochemistry in the troposphere and stratosphere. Chemistry component of the model, based on CHASER-V4.0, calculates the concentrations of 92 chemical species and 262 chemical reactions (58 photolytic, 183 kinetic, and 21 heterogeneous reactions). In the framework of MIROC-ESM,  CHASER is coupled with the aerosol model SPRINTARS for simulating sulfate-nitrate-ammonium system,  SOA formation, BC aging. More details on CHASER can be found in Morgenstern et al. (2017). </t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>V4.0</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>fortran</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">global mean CH4 lifetime (OH), chemical production, STE, and burden of O3, LNOx production, radiative forcings  </t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>CH4, O3, aerosols, radiative forcings</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>concentrations around Asia (China, Japan)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>T42/T85</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>T42L81 for chemistry and T85L81 for dynamics and physics</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>2.8deg for chemistry and 1.4deg for dynamics and physics</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Our basic tuning targets are ozone abundances/distributions/budgets in the troposphere and stratosphere, tropospheric methane (abundance and trend) and its lifetime  (mean OH concentration), NOx(NO2)/CO/aerosols distributions as observed by the satellite sensors, and seasonal cycles of the concentrations at the observational sites mostly in Asia (China and Japan areas). As the tuning knob, we consider emissions (particularly for natural sources like lightning/soil NOx, BVOCs), deposition (dry and wet), formation of SOA, and aging of BC. In the present model coding, the relative weight for tuning would be on the chemistry/aerosol part (process oriented metrics) rather than on pure climate performance. Possible conflicts may occor with respect to inclusion of nitrate/SOA formation and aging process of BC to this version of MIROC model which can deteriolate climate simulation performance.  </t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>FFSL</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Grid-scale transport is simulated by flux-form semi-Lagrangian (FFSL) scheme with sub-grid scale transport calculated in the schemes of convection and vertical diffusion.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Biogenic C2H6, C3H8, C2H4, and C3H6 (other VOCs like isoprene are calculated by VISIT or MEGAN model), and volcanic SO2.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>CFCs, N2O, OCS as concentrations</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>BVOCs (Isoprene, Terpenes, Acetone, Methanol), dust, sea-salt, DMS</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>NOx, CO, CH4, C2H6, C3H8, C2H4, C3H6, acetone, CH3OH, SO2, NH3, CH3CCl3, BC/OC for anthropogenic and biomass burning</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>from files</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>volcanic SO2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Lightning NOx, biomass burning (all emitted species)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>aircraft NOx and BC (specified with external files)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>NHx</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>CH4</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>N2O</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>CO</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>PANs</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>H2O2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ROOH</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MGLY</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>terpenes</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>CH3OH, HO2, N2O5, HOC2H4O2, HOC3H6O2, ISO2, MACRO2, CH3COO2</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>fully on-line reflecting temperature and pressure for calculating cross-sections and quantum yields.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Watanabe_2011</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Morgenstern_2017</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Sudo_2002</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Akiyoshi_2009</t>
-    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1772,20 +1651,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1877,23 +1742,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1935,7 +1792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1967,27 +1824,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2019,24 +1858,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2212,26 +2033,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2271,42 +2090,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2322,7 +2141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -2330,7 +2149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2338,60 +2157,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="20.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AC27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -2402,23 +2218,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>482</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2426,37 +2242,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2466,56 +2282,56 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
@@ -2523,24 +2339,21 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>517</v>
-      </c>
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
@@ -2549,21 +2362,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.75" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2574,7 +2385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2590,7 +2401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -2598,15 +2409,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2622,7 +2429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
@@ -2630,95 +2437,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="36">
-      <c r="A21" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="36">
-      <c r="A22" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>180</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD160"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2755,15 +2506,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>485</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2771,28 +2522,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>486</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2800,166 +2551,160 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
+    <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF21" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="B22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="AB22" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
+    <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="24" customHeight="1">
+    <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -2969,21 +2714,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -2993,21 +2738,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3017,23 +2762,23 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -3041,10 +2786,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -3052,10 +2797,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -3063,23 +2808,23 @@
         <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>488</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -3087,85 +2832,85 @@
         <v>43</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>489</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -3175,21 +2920,21 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -3199,21 +2944,21 @@
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -3223,21 +2968,21 @@
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:35" ht="24" customHeight="1">
@@ -3245,21 +2990,21 @@
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="24" customHeight="1">
@@ -3269,61 +3014,61 @@
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="A91" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="24" customHeight="1">
       <c r="B92" s="11" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AA92" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AE92" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AF92" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AG92" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AH92" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AI92" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="24" customHeight="1">
@@ -3331,21 +3076,21 @@
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -3355,21 +3100,21 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -3379,21 +3124,21 @@
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -3403,21 +3148,21 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -3427,21 +3172,21 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="A115" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -3451,21 +3196,21 @@
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3475,21 +3220,21 @@
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="A122" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
@@ -3499,21 +3244,21 @@
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -3523,21 +3268,21 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="A131" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -3547,21 +3292,21 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -3571,23 +3316,23 @@
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="12" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -3595,28 +3340,28 @@
         <v>43</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="178" customHeight="1">
       <c r="B145" s="11" t="s">
-        <v>496</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -3624,28 +3369,28 @@
         <v>43</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="B150" s="11" t="s">
-        <v>490</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
@@ -3653,28 +3398,28 @@
         <v>43</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="B155" s="11" t="s">
-        <v>492</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -3682,42 +3427,90 @@
         <v>43</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
       <c r="B159" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11" t="s">
-        <v>491</v>
-      </c>
+      <c r="B160" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B22" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>AA21:AF21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
+  <dataValidations count="23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AE21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AE22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>AA31:AB31</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B136 B132 B128 B124 B120 B116 B112 B108 B104 B100 B88 B80 B76 B72" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B84 B43" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>AA68:AC68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
       <formula1>AA92:AI92</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,37 +3518,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3766,23 +3557,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>493</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3790,37 +3581,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3830,20 +3621,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3854,23 +3645,23 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>494</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3878,34 +3669,34 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>495</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3915,21 +3706,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3939,36 +3730,39 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3976,37 +3770,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4017,23 +3809,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>497</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4041,39 +3833,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>498</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4083,10 +3875,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -4094,24 +3886,23 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4120,37 +3911,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4161,10 +3950,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4172,10 +3961,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4183,26 +3972,26 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4210,21 +3999,21 @@
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -4234,136 +4023,136 @@
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
@@ -4373,93 +4162,90 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>503</v>
+        <v>300</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4467,28 +4253,28 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>499</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4496,28 +4282,28 @@
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>500</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -4525,28 +4311,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>501</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -4554,52 +4340,52 @@
         <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>502</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
@@ -4609,101 +4395,101 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AE62" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AE63" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AE64" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="24" customHeight="1">
@@ -4713,70 +4499,70 @@
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD69" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE69" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="11" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AA70" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
@@ -4784,28 +4570,28 @@
         <v>43</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="24" customHeight="1">
@@ -4813,15 +4599,15 @@
         <v>43</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4829,10 +4615,10 @@
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4840,28 +4626,28 @@
         <v>43</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="11" t="s">
-        <v>505</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4869,41 +4655,41 @@
         <v>43</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>506</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="13" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -4911,28 +4697,28 @@
         <v>43</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>500</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -4940,28 +4726,69 @@
         <v>43</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B24" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AF20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B71 B61:B64 B29:B32" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AF21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AF22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AF23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AF24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
       <formula1>AA29:AE29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AE30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AE31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AE32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
+      <formula1>AA61:AE61</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+      <formula1>AA62:AE62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AE63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+      <formula1>AA64:AE64</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+      <formula1>AA69:AE69</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>AA70:AE70</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>AA71:AE71</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4969,37 +4796,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AJ61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5010,23 +4835,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>482</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
@@ -5034,37 +4859,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
@@ -5074,398 +4899,371 @@
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>515</v>
+        <v>300</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
@@ -5475,21 +5273,21 @@
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -5499,21 +5297,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5523,21 +5321,21 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -5547,21 +5345,21 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5571,21 +5369,21 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -5595,21 +5393,21 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5619,21 +5417,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5643,38 +5441,83 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B61" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B25" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AJ16</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B49 B45 B41 B37 B33" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AJ17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AJ18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AJ19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AJ20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AJ21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AJ22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AJ23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AJ24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AJ25</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B61 B57" xr:uid="{00000000-0002-0000-0600-000007000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5683,37 +5526,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AE38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5724,23 +5565,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -5748,37 +5589,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -5788,63 +5629,63 @@
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -5854,101 +5695,101 @@
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
@@ -5958,21 +5799,21 @@
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5982,41 +5823,56 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B38" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B18" xr:uid="{00000000-0002-0000-0700-000000000000}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AC16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B26" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>AA17:AC17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>AA18:AC18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AE23</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AE24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AE25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AE26</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B38" xr:uid="{00000000-0002-0000-0700-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6025,37 +5881,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AJ41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -6066,23 +5920,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>482</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6090,26 +5944,26 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6117,39 +5971,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
@@ -6159,336 +6013,336 @@
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ27" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ28" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -6498,21 +6352,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -6522,38 +6376,62 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B29" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AA21:AJ21</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AJ22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AJ23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AJ24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AJ25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AJ26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AJ27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AJ28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AJ29</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B41" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmoschem.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kengo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C257CC-2AE8-4924-B34F-C72E64BE2BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="915" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,20 @@
     <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
     <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="522">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -163,9 +177,6 @@
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>CHASER　(MIROC-ESM)</t>
-  </si>
-  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -181,1380 +192,1490 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>1.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Overview of atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.overview</t>
+  </si>
+  <si>
+    <t>NOTE: Double click to expand if text is too long for cell</t>
+  </si>
+  <si>
+    <t>1.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Chemistry Scheme Scope</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>Atmospheric domains covered by the atmospheric chemistry model</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
+  </si>
+  <si>
+    <t>Troposphere</t>
+  </si>
+  <si>
+    <t>Stratosphere</t>
+  </si>
+  <si>
+    <t>Mesosphere</t>
+  </si>
+  <si>
+    <t>Whole atmosphere</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Basic Approximations</t>
+  </si>
+  <si>
+    <t>Basic approximations made in the atmospheric chemistry model</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.basic_approximations</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Prognostic Variables Form</t>
+  </si>
+  <si>
+    <t>Form of prognostic variables in the atmospheric chemistry component.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.prognostic_variables_form</t>
+  </si>
+  <si>
+    <t>3D mass/mixing ratio for gas</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Number Of Tracers</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Number of advected tracers in the atmospheric chemistry model</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
+  </si>
+  <si>
+    <t>1.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Family Approach</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry calculations (not advection) generalized into families of species?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.family_approach</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Coupling With Chemical Reactivity</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry transport scheme turbulence is couple with chemical reactivity?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Software Properties</t>
+  </si>
+  <si>
+    <t>Software properties of aerosol code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Location of code for this component.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
+    <t>Code Version</t>
+  </si>
+  <si>
+    <t>Code version identifier.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
+  </si>
+  <si>
+    <t>Code Languages</t>
+  </si>
+  <si>
+    <t>Code language(s).</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Timestep Framework</t>
+  </si>
+  <si>
+    <t>Timestepping in the atmospheric chemistry model</t>
+  </si>
+  <si>
+    <t>1.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Mathematical method deployed to solve the evolution of a given variable</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.method</t>
+  </si>
+  <si>
+    <t>Operator splitting</t>
+  </si>
+  <si>
+    <t>Integrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.2 </t>
+  </si>
+  <si>
+    <t>Split Operator Advection Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for chemical species advection (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.3 </t>
+  </si>
+  <si>
+    <t>Split Operator Physical Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for physics (in seconds).</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.4 </t>
+  </si>
+  <si>
+    <t>Split Operator Chemistry Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for chemistry (in seconds).</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.5 </t>
+  </si>
+  <si>
+    <t>Split Operator Alternate Order</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
+  </si>
+  <si>
+    <t>1.3.1.6 *</t>
+  </si>
+  <si>
+    <t>Integrated Timestep</t>
+  </si>
+  <si>
+    <t>Timestep for the atmospheric chemistry model (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
+  </si>
+  <si>
+    <t>1.3.1.7 *</t>
+  </si>
+  <si>
+    <t>Integrated Scheme Type</t>
+  </si>
+  <si>
+    <t>Specify the type of timestep scheme</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_scheme_type</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Semi-implicit</t>
+  </si>
+  <si>
+    <t>Semi-analytic</t>
+  </si>
+  <si>
+    <t>Impact solver</t>
+  </si>
+  <si>
+    <t>Back Euler</t>
+  </si>
+  <si>
+    <t>Newton Raphson</t>
+  </si>
+  <si>
+    <t>Rosenbrock</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.1 </t>
+  </si>
+  <si>
+    <t>Turbulence</t>
+  </si>
+  <si>
+    <t>Call order for turbulence scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.2 </t>
+  </si>
+  <si>
+    <t>Convection</t>
+  </si>
+  <si>
+    <t>Call order for convection scheme This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.3 </t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Call order for precipitation scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.4 </t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Call order for emissions scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.5 </t>
+  </si>
+  <si>
+    <t>Deposition</t>
+  </si>
+  <si>
+    <t>Call order for deposition scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.6 </t>
+  </si>
+  <si>
+    <t>Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>Call order for gas phase chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.7 </t>
+  </si>
+  <si>
+    <t>Tropospheric Heterogeneous Phase Chemistry</t>
+  </si>
+  <si>
+    <t>Call order for tropospheric heterogeneous phase chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.8 </t>
+  </si>
+  <si>
+    <t>Stratospheric Heterogeneous Phase Chemistry</t>
+  </si>
+  <si>
+    <t>Call order for stratospheric heterogeneous phase chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.9 </t>
+  </si>
+  <si>
+    <t>Photo Chemistry</t>
+  </si>
+  <si>
+    <t>Call order for photo chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2.10 </t>
+  </si>
+  <si>
+    <t>Aerosols</t>
+  </si>
+  <si>
+    <t>Call order for aerosols scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning methodology for atmospheric chemistry component</t>
+  </si>
+  <si>
+    <t>1.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>General overview description of tuning: explain and motivate the main targets and metrics retained. &amp;Document the relative weight given to climate performance metrics versus process oriented metrics, &amp;and on the possible conflicts with parameterization level tuning. In particular describe any struggle &amp;with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.2 </t>
+  </si>
+  <si>
+    <t>Global Mean Metrics Used</t>
+  </si>
+  <si>
+    <t>List set of metrics of the global mean state used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.3 </t>
+  </si>
+  <si>
+    <t>Regional Metrics Used</t>
+  </si>
+  <si>
+    <t>List of regional metrics of mean state used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.4 </t>
+  </si>
+  <si>
+    <t>Trend Metrics Used</t>
+  </si>
+  <si>
+    <t>List observed trend metrics used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Name of grid in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of grid in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.overview</t>
+  </si>
+  <si>
+    <t>2.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Matches Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Does the atmospheric chemistry grid match the atmosphere grid?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Resolution</t>
+  </si>
+  <si>
+    <t>Resolution in the atmospheric chemistry grid</t>
+  </si>
+  <si>
+    <t>2.2.1.1 *</t>
+  </si>
+  <si>
+    <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.resolution.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.2 </t>
+  </si>
+  <si>
+    <t>Canonical Horizontal Resolution</t>
+  </si>
+  <si>
+    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.3 </t>
+  </si>
+  <si>
+    <t>Number Of Horizontal Gridpoints</t>
+  </si>
+  <si>
+    <t>Total number of horizontal (XY) points (or degrees of freedom) on computational grid.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.4 </t>
+  </si>
+  <si>
+    <t>Number Of Vertical Levels</t>
+  </si>
+  <si>
+    <t>Number of vertical levels resolved on computational grid.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.5 </t>
+  </si>
+  <si>
+    <t>Is Adaptive Grid</t>
+  </si>
+  <si>
+    <t>Default is False. Set true if grid resolution changes during execution.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the transport in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.transport.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.transport.overview</t>
+  </si>
+  <si>
+    <t>3.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Use Atmospheric Transport</t>
+  </si>
+  <si>
+    <t>Is transport handled by the atmosphere, rather than within atmospheric cehmistry?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.4 </t>
+  </si>
+  <si>
+    <t>Transport Details</t>
+  </si>
+  <si>
+    <t>If transport is handled within the atmospheric chemistry scheme, describe it.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.transport.transport_details</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.overview</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Emissions Concentrations --&gt; Surface Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.1 </t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Sources of the chemical species emitted at the surface that are taken into account in the emissions scheme</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.sources</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Sea surface</t>
+  </si>
+  <si>
+    <t>Anthropogenic</t>
+  </si>
+  <si>
+    <t>Biomass burning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.method</t>
+  </si>
+  <si>
+    <t>Climatology</t>
+  </si>
+  <si>
+    <t>Spatially uniform mixing ratio</t>
+  </si>
+  <si>
+    <t>Spatially uniform concentration</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.3 </t>
+  </si>
+  <si>
+    <t>Prescribed Climatology Emitted Species</t>
+  </si>
+  <si>
+    <t>List of chemical species emitted at the surface and prescribed via a climatology, and the nature of the climatology (E.g. CO (monthly), C2H6 (constant))</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.4 </t>
+  </si>
+  <si>
+    <t>Prescribed Spatially Uniform Emitted Species</t>
+  </si>
+  <si>
+    <t>List of chemical species emitted at the surface and prescribed as spatially uniform</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.5 </t>
+  </si>
+  <si>
+    <t>Interactive Emitted Species</t>
+  </si>
+  <si>
+    <t>List of chemical species emitted at the surface and specified via an interactive method</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.6 </t>
+  </si>
+  <si>
+    <t>Other Emitted Species</t>
+  </si>
+  <si>
+    <t>List of chemical species emitted at the surface and specified via any other method</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.1 </t>
+  </si>
+  <si>
+    <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.sources</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Volcanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.2 </t>
+  </si>
+  <si>
+    <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.3 </t>
+  </si>
+  <si>
+    <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.4 </t>
+  </si>
+  <si>
+    <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.5 </t>
+  </si>
+  <si>
+    <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.6 </t>
+  </si>
+  <si>
+    <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Emissions Concentrations --&gt; Concentrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.1.1 </t>
+  </si>
+  <si>
+    <t>Prescribed Lower Boundary</t>
+  </si>
+  <si>
+    <t>List of species prescribed at the lower boundary.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.1.2 </t>
+  </si>
+  <si>
+    <t>Prescribed Upper Boundary</t>
+  </si>
+  <si>
+    <t>List of species prescribed at the upper boundary.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Atmospheric gas phase chemistry transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.3 </t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Species included in the gas phase chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.species</t>
+  </si>
+  <si>
+    <t>HOx</t>
+  </si>
+  <si>
+    <t>NOy</t>
+  </si>
+  <si>
+    <t>Ox</t>
+  </si>
+  <si>
+    <t>Cly</t>
+  </si>
+  <si>
+    <t>HSOx</t>
+  </si>
+  <si>
+    <t>Bry</t>
+  </si>
+  <si>
+    <t>VOCs</t>
+  </si>
+  <si>
+    <t>Isoprene</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Number Of Bimolecular Reactions</t>
+  </si>
+  <si>
+    <t>The number of bi-molecular reactions in the gas phase chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
+  </si>
+  <si>
+    <t>5.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Number Of Termolecular Reactions</t>
+  </si>
+  <si>
+    <t>The number of ter-molecular reactions in the gas phase chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Number Of Tropospheric Heterogenous Reactions</t>
+  </si>
+  <si>
+    <t>The number of reactions in the tropospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
+  </si>
+  <si>
+    <t>5.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Number Of Stratospheric Heterogenous Reactions</t>
+  </si>
+  <si>
+    <t>The number of reactions in the stratospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
+  </si>
+  <si>
+    <t>5.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Number Of Advected Species</t>
+  </si>
+  <si>
+    <t>The number of advected species in the gas phase chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Number Of Steady State Species</t>
+  </si>
+  <si>
+    <t>The number of gas phase species for which the concentration is updated in the chemical solver assuming photochemical steady state</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
+  </si>
+  <si>
+    <t>5.1.1.10 *</t>
+  </si>
+  <si>
+    <t>Interactive Dry Deposition</t>
+  </si>
+  <si>
+    <t>Is dry deposition interactive (as opposed to prescribed)? Dry deposition describes the dry processes by which gaseous species deposit themselves on solid surfaces thus decreasing their concentration in the air.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Wet Deposition</t>
+  </si>
+  <si>
+    <t>Is wet deposition included? Wet deposition describes the moist processes by which gaseous species deposit themselves on solid surfaces thus decreasing their concentration in the air.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Wet Oxidation</t>
+  </si>
+  <si>
+    <t>Is wet oxidation included? Oxidation describes the loss of electrons or an increase in oxidation state by a molecule</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.3 </t>
+  </si>
+  <si>
+    <t>Gas Phase Species</t>
+  </si>
+  <si>
+    <t>Gas phase species included in the stratospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.4 </t>
+  </si>
+  <si>
+    <t>Aerosol Species</t>
+  </si>
+  <si>
+    <t>Aerosol species included in the stratospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.aerosol_species</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>Polar stratospheric ice</t>
+  </si>
+  <si>
+    <t>NAT (Nitric acid trihydrate)</t>
+  </si>
+  <si>
+    <t>NAD (Nitric acid dihydrate)</t>
+  </si>
+  <si>
+    <t>STS (supercooled ternary solution aerosol particule))</t>
+  </si>
+  <si>
+    <t>6.1.1.5 *</t>
+  </si>
+  <si>
+    <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
+  </si>
+  <si>
+    <t>6.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Is sedimentation is included in the stratospheric heterogeneous chemistry scheme or not?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
+  </si>
+  <si>
+    <t>6.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Coagulation</t>
+  </si>
+  <si>
+    <t>Is coagulation is included in the stratospheric heterogeneous chemistry scheme or not?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.3 </t>
+  </si>
+  <si>
+    <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.4 </t>
+  </si>
+  <si>
+    <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.aerosol_species</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Black carbon/soot</t>
+  </si>
+  <si>
+    <t>Secondary organic aerosols</t>
+  </si>
+  <si>
+    <t>Particulate organic matter</t>
+  </si>
+  <si>
+    <t>7.1.1.5 *</t>
+  </si>
+  <si>
+    <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
+  </si>
+  <si>
+    <t>7.1.1.6 *</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
+  </si>
+  <si>
+    <t>7.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>Atmospheric chemistry photo chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the photo chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.photo_chemistry.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.photo_chemistry.overview</t>
+  </si>
+  <si>
+    <t>8.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Number Of Reactions</t>
+  </si>
+  <si>
+    <t>The number of reactions in the photo-chemistry scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
+  </si>
+  <si>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>Photo Chemistry --&gt; Photolysis</t>
+  </si>
+  <si>
+    <t>Photolysis scheme</t>
+  </si>
+  <si>
+    <t>8.2.1.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
+  </si>
+  <si>
+    <t>Offline (clear sky)</t>
+  </si>
+  <si>
+    <t>Offline (with clouds)</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.1.2 </t>
+  </si>
+  <si>
+    <t>Environmental Conditions</t>
+  </si>
+  <si>
+    <t>Describe any environmental conditions taken into account by the photolysis scheme (e.g. whether pressure- and temperature-sensitive cross-sections and quantum yields in the photolysis calculations are modified to reflect the modelled conditions.)</t>
+  </si>
+  <si>
+    <t>cmip6.atmoschem.photo_chemistry.photolysis.environmental_conditions</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Sudo-Kengo</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CHASER</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Numaguti-1997</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Akiyoshi-2009</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>CHASER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>MIROC-ESM)</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
     <t>chemistry climate model, chemistry aerosol coupling, ozone, methane, CO, NOx, HOx, VOCs, sulfate, nitrate, BC, OC, SOA</t>
-  </si>
-  <si>
-    <t>1.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Overview of atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.overview</t>
-  </si>
-  <si>
-    <t>NOTE: Double click to expand if text is too long for cell</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t xml:space="preserve">The MIROC-ESM (Watanabe et al., 2011) considers detailed photochemistry in the troposphere and stratosphere. Chemistry component of the model, based on CHASER-V4.0, calculates the concentrations of 92 chemical species and 262 chemical reactions (58 photolytic, 183 kinetic, and 21 heterogeneous reactions). In the framework of MIROC-ESM,  CHASER is coupled with the aerosol model SPRINTARS for simulating sulfate-nitrate-ammonium system,  SOA formation, BC aging. More details on CHASER can be found in Morgenstern et al. (2017). </t>
-  </si>
-  <si>
-    <t>1.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Chemistry Scheme Scope</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>Atmospheric domains covered by the atmospheric chemistry model</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
-  </si>
-  <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
-    <t>troposphere</t>
-  </si>
-  <si>
-    <t>stratosphere</t>
-  </si>
-  <si>
-    <t>mesosphere</t>
-  </si>
-  <si>
-    <t>whole atmosphere</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>1.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Basic Approximations</t>
-  </si>
-  <si>
-    <t>Basic approximations made in the atmospheric chemistry model</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.basic_approximations</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Prognostic Variables Form</t>
-  </si>
-  <si>
-    <t>Form of prognostic variables in the atmospheric chemistry component.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.prognostic_variables_form</t>
-  </si>
-  <si>
-    <t>3D mass/mixing ratio for gas</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Number Of Tracers</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>Number of advected tracers in the atmospheric chemistry model</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
-  </si>
-  <si>
-    <t>1.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Family Approach</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry calculations (not advection) generalized into families of species?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.family_approach</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Coupling With Chemical Reactivity</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry transport scheme turbulence is couple with chemical reactivity?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Software Properties</t>
-  </si>
-  <si>
-    <t>Software properties of aerosol code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Location of code for this component.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Code Version</t>
-  </si>
-  <si>
-    <t>Code version identifier.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>V4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
-    <t>Code Languages</t>
-  </si>
-  <si>
-    <t>Code language(s).</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>fortran</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Timestep Framework</t>
-  </si>
-  <si>
-    <t>Timestepping in the atmospheric chemistry model</t>
-  </si>
-  <si>
-    <t>1.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Mathematical method deployed to solve the evolution of a given variable</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.method</t>
-  </si>
-  <si>
-    <t>Integrated</t>
-  </si>
-  <si>
-    <t>Operator splitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.2 </t>
-  </si>
-  <si>
-    <t>Split Operator Advection Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for chemical species advection (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.3 </t>
-  </si>
-  <si>
-    <t>Split Operator Physical Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for physics (in seconds).</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.4 </t>
-  </si>
-  <si>
-    <t>Split Operator Chemistry Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for chemistry (in seconds).</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.5 </t>
-  </si>
-  <si>
-    <t>Split Operator Alternate Order</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
-  </si>
-  <si>
-    <t>1.3.1.6 *</t>
-  </si>
-  <si>
-    <t>Integrated Timestep</t>
-  </si>
-  <si>
-    <t>Timestep for the atmospheric chemistry model (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
-  </si>
-  <si>
-    <t>1.3.1.7 *</t>
-  </si>
-  <si>
-    <t>Integrated Scheme Type</t>
-  </si>
-  <si>
-    <t>Specify the type of timestep scheme</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_scheme_type</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Semi-implicit</t>
-  </si>
-  <si>
-    <t>Semi-analytic</t>
-  </si>
-  <si>
-    <t>Impact solver</t>
-  </si>
-  <si>
-    <t>Back Euler</t>
-  </si>
-  <si>
-    <t>Newton Raphson</t>
-  </si>
-  <si>
-    <t>Rosenbrock</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.1 </t>
-  </si>
-  <si>
-    <t>Turbulence</t>
-  </si>
-  <si>
-    <t>Call order for turbulence scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.2 </t>
-  </si>
-  <si>
-    <t>Convection</t>
-  </si>
-  <si>
-    <t>Call order for convection scheme This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.3 </t>
-  </si>
-  <si>
-    <t>Precipitation</t>
-  </si>
-  <si>
-    <t>Call order for precipitation scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.4 </t>
-  </si>
-  <si>
-    <t>Emissions</t>
-  </si>
-  <si>
-    <t>Call order for emissions scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.5 </t>
-  </si>
-  <si>
-    <t>Deposition</t>
-  </si>
-  <si>
-    <t>Call order for deposition scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.6 </t>
-  </si>
-  <si>
-    <t>Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>Call order for gas phase chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.7 </t>
-  </si>
-  <si>
-    <t>Tropospheric Heterogeneous Phase Chemistry</t>
-  </si>
-  <si>
-    <t>Call order for tropospheric heterogeneous phase chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.8 </t>
-  </si>
-  <si>
-    <t>Stratospheric Heterogeneous Phase Chemistry</t>
-  </si>
-  <si>
-    <t>Call order for stratospheric heterogeneous phase chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.9 </t>
-  </si>
-  <si>
-    <t>Photo Chemistry</t>
-  </si>
-  <si>
-    <t>Call order for photo chemistry scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2.10 </t>
-  </si>
-  <si>
-    <t>Aerosols</t>
-  </si>
-  <si>
-    <t>Call order for aerosols scheme. This should be an integer greater than zero, and may be the same value as for another process if they are calculated at the same time.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Tuning Applied</t>
-  </si>
-  <si>
-    <t>Tuning methodology for atmospheric chemistry component</t>
-  </si>
-  <si>
-    <t>1.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>General overview description of tuning: explain and motivate the main targets and metrics retained. &amp;Document the relative weight given to climate performance metrics versus process oriented metrics, &amp;and on the possible conflicts with parameterization level tuning. In particular describe any struggle &amp;with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">global mean CH4 lifetime (OH), chemical production, STE, and burden of O3, LNOx production, radiative forcings  </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CH4, O3, aerosols, radiative forcings</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>concentrations around Asia (China, Japan)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T42/T85</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T42L81 for chemistry and T85L81 for dynamics and physics</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2.8deg for chemistry and 1.4deg for dynamics and physics</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t xml:space="preserve">Our basic tuning targets are ozone abundances/distributions/budgets in the troposphere and stratosphere, tropospheric methane (abundance and trend) and its lifetime  (mean OH concentration), NOx(NO2)/CO/aerosols distributions as observed by the satellite sensors, and seasonal cycles of the concentrations at the observational sites mostly in Asia (China and Japan areas). As the tuning knob, we consider emissions (particularly for natural sources like lightning/soil NOx, BVOCs), deposition (dry and wet), formation of SOA, and aging of BC. In the present model coding, the relative weight for tuning would be on the chemistry/aerosol part (process oriented metrics) rather than on pure climate performance. Possible conflicts may occor with respect to inclusion of nitrate/SOA formation and aging process of BC to this version of MIROC model which can deteriolate climate simulation performance.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.2 </t>
-  </si>
-  <si>
-    <t>Global Mean Metrics Used</t>
-  </si>
-  <si>
-    <t>List set of metrics of the global mean state used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global mean CH4 lifetime (OH), chemical production, STE, and burden of O3, LNOx production, radiative forcings  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.3 </t>
-  </si>
-  <si>
-    <t>Regional Metrics Used</t>
-  </si>
-  <si>
-    <t>List of regional metrics of mean state used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
-  </si>
-  <si>
-    <t>concentrations around Asia (China, Japan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.4 </t>
-  </si>
-  <si>
-    <t>Trend Metrics Used</t>
-  </si>
-  <si>
-    <t>List observed trend metrics used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Name of grid in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.name</t>
-  </si>
-  <si>
-    <t>T42/T85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of grid in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.overview</t>
-  </si>
-  <si>
-    <t>2.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Matches Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Does the atmospheric chemistry grid match the atmosphere grid?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Resolution</t>
-  </si>
-  <si>
-    <t>Resolution in the atmospheric chemistry grid</t>
-  </si>
-  <si>
-    <t>2.2.1.1 *</t>
-  </si>
-  <si>
-    <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.name</t>
-  </si>
-  <si>
-    <t>T42L81 for chemistry and T85L81 for dynamics and physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.2 </t>
-  </si>
-  <si>
-    <t>Canonical Horizontal Resolution</t>
-  </si>
-  <si>
-    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
-  </si>
-  <si>
-    <t>2.8deg for chemistry and 1.4deg for dynamics and physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.3 </t>
-  </si>
-  <si>
-    <t>Number Of Horizontal Gridpoints</t>
-  </si>
-  <si>
-    <t>Total number of horizontal (XY) points (or degrees of freedom) on computational grid.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.4 </t>
-  </si>
-  <si>
-    <t>Number Of Vertical Levels</t>
-  </si>
-  <si>
-    <t>Number of vertical levels resolved on computational grid.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.5 </t>
-  </si>
-  <si>
-    <t>Is Adaptive Grid</t>
-  </si>
-  <si>
-    <t>Default is False. Set true if grid resolution changes during execution.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the transport in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.transport.name</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>FFSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.transport.overview</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Grid-scale transport is simulated by flux-form semi-Lagrangian (FFSL) scheme with sub-grid scale transport calculated in the schemes of convection and vertical diffusion.</t>
-  </si>
-  <si>
-    <t>3.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Use Atmospheric Transport</t>
-  </si>
-  <si>
-    <t>Is transport handled by the atmosphere, rather than within atmospheric cehmistry?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.4 </t>
-  </si>
-  <si>
-    <t>Transport Details</t>
-  </si>
-  <si>
-    <t>If transport is handled within the atmospheric chemistry scheme, describe it.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.transport.transport_details</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.overview</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Emissions Concentrations --&gt; Surface Emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.1 </t>
-  </si>
-  <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t>Sources of the chemical species emitted at the surface that are taken into account in the emissions scheme</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.sources</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>Sea surface</t>
-  </si>
-  <si>
-    <t>Anthropogenic</t>
-  </si>
-  <si>
-    <t>Biomass burning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.method</t>
-  </si>
-  <si>
-    <t>Climatology</t>
-  </si>
-  <si>
-    <t>Spatially uniform mixing ratio</t>
-  </si>
-  <si>
-    <t>Spatially uniform concentration</t>
-  </si>
-  <si>
-    <t>Interactive</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.3 </t>
-  </si>
-  <si>
-    <t>Prescribed Climatology Emitted Species</t>
-  </si>
-  <si>
-    <t>List of chemical species emitted at the surface and prescribed via a climatology, and the nature of the climatology (E.g. CO (monthly), C2H6 (constant))</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Biogenic C2H6, C3H8, C2H4, and C3H6 (other VOCs like isoprene are calculated by VISIT or MEGAN model), and volcanic SO2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.4 </t>
-  </si>
-  <si>
-    <t>Prescribed Spatially Uniform Emitted Species</t>
-  </si>
-  <si>
-    <t>List of chemical species emitted at the surface and prescribed as spatially uniform</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>CFCs, N2O, OCS as concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.5 </t>
-  </si>
-  <si>
-    <t>Interactive Emitted Species</t>
-  </si>
-  <si>
-    <t>List of chemical species emitted at the surface and specified via an interactive method</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>BVOCs (Isoprene, Terpenes, Acetone, Methanol), dust, sea-salt, DMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.6 </t>
-  </si>
-  <si>
-    <t>Other Emitted Species</t>
-  </si>
-  <si>
-    <t>List of chemical species emitted at the surface and specified via any other method</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>NOx, CO, CH4, C2H6, C3H8, C2H4, C3H6, acetone, CH3OH, SO2, NH3, CH3CCl3, BC/OC for anthropogenic and biomass burning</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
-  </si>
-  <si>
-    <t>TO DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.1 </t>
-  </si>
-  <si>
-    <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.sources</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Volcanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.2 </t>
-  </si>
-  <si>
-    <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.3 </t>
-  </si>
-  <si>
-    <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>from files</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>volcanic SO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.4 </t>
-  </si>
-  <si>
-    <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.5 </t>
-  </si>
-  <si>
-    <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Lightning NOx, biomass burning (all emitted species)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.6 </t>
-  </si>
-  <si>
-    <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>aircraft NOx and BC (specified with external files)</t>
-  </si>
-  <si>
-    <t>4.4.1</t>
-  </si>
-  <si>
-    <t>Emissions Concentrations --&gt; Concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.1.1 </t>
-  </si>
-  <si>
-    <t>Prescribed Lower Boundary</t>
-  </si>
-  <si>
-    <t>List of species prescribed at the lower boundary.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.1.2 </t>
-  </si>
-  <si>
-    <t>Prescribed Upper Boundary</t>
-  </si>
-  <si>
-    <t>List of species prescribed at the upper boundary.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Atmospheric gas phase chemistry transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
-  </si>
-  <si>
-    <t>CHASER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.3 </t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Species included in the gas phase chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.species</t>
-  </si>
-  <si>
-    <t>HOx</t>
-  </si>
-  <si>
-    <t>NOy</t>
-  </si>
-  <si>
-    <t>Ox</t>
-  </si>
-  <si>
-    <t>Cly</t>
-  </si>
-  <si>
-    <t>HSOx</t>
-  </si>
-  <si>
-    <t>Bry</t>
-  </si>
-  <si>
-    <t>VOCs</t>
-  </si>
-  <si>
-    <t>isoprene</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>Isoprene</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Number Of Bimolecular Reactions</t>
-  </si>
-  <si>
-    <t>The number of bi-molecular reactions in the gas phase chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
-  </si>
-  <si>
-    <t>5.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Number Of Termolecular Reactions</t>
-  </si>
-  <si>
-    <t>The number of ter-molecular reactions in the gas phase chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Number Of Tropospheric Heterogenous Reactions</t>
-  </si>
-  <si>
-    <t>The number of reactions in the tropospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
-  </si>
-  <si>
-    <t>5.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Number Of Stratospheric Heterogenous Reactions</t>
-  </si>
-  <si>
-    <t>The number of reactions in the stratospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
-  </si>
-  <si>
-    <t>5.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Number Of Advected Species</t>
-  </si>
-  <si>
-    <t>The number of advected species in the gas phase chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Number Of Steady State Species</t>
-  </si>
-  <si>
-    <t>The number of gas phase species for which the concentration is updated in the chemical solver assuming photochemical steady state</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
-  </si>
-  <si>
-    <t>5.1.1.10 *</t>
-  </si>
-  <si>
-    <t>Interactive Dry Deposition</t>
-  </si>
-  <si>
-    <t>Is dry deposition interactive (as opposed to prescribed)? Dry deposition describes the dry processes by which gaseous species deposit themselves on solid surfaces thus decreasing their concentration in the air.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Wet Deposition</t>
-  </si>
-  <si>
-    <t>Is wet deposition included? Wet deposition describes the moist processes by which gaseous species deposit themselves on solid surfaces thus decreasing their concentration in the air.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Wet Oxidation</t>
-  </si>
-  <si>
-    <t>Is wet oxidation included? Oxidation describes the loss of electrons or an increase in oxidation state by a molecule</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
-  </si>
-  <si>
-    <t>Akiyoshi-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.3 </t>
-  </si>
-  <si>
-    <t>Gas Phase Species</t>
-  </si>
-  <si>
-    <t>Gas phase species included in the stratospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.4 </t>
-  </si>
-  <si>
-    <t>Aerosol Species</t>
-  </si>
-  <si>
-    <t>Aerosol species included in the stratospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.aerosol_species</t>
-  </si>
-  <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>Polar stratospheric ice</t>
-  </si>
-  <si>
-    <t>NAT (Nitric acid trihydrate)</t>
-  </si>
-  <si>
-    <t>NAD (Nitric acid dihydrate)</t>
-  </si>
-  <si>
-    <t>STS (supercooled ternary solution aerosol particule))</t>
-  </si>
-  <si>
-    <t>6.1.1.5 *</t>
-  </si>
-  <si>
-    <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
-  </si>
-  <si>
-    <t>6.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Sedimentation</t>
-  </si>
-  <si>
-    <t>Is sedimentation is included in the stratospheric heterogeneous chemistry scheme or not?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
-  </si>
-  <si>
-    <t>6.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Coagulation</t>
-  </si>
-  <si>
-    <t>Is coagulation is included in the stratospheric heterogeneous chemistry scheme or not?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.3 </t>
-  </si>
-  <si>
-    <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>NHx</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CH4</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>N2O</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>PANs</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>H2O2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ROOH</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>MGLY</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>terpenes</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>CH3OH, HO2, N2O5, HOC2H4O2, HOC3H6O2, ISO2, MACRO2, CH3COO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.4 </t>
-  </si>
-  <si>
-    <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.aerosol_species</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>Black carbon/soot</t>
-  </si>
-  <si>
-    <t>Secondary organic aerosols</t>
-  </si>
-  <si>
-    <t>Particulate organic matter</t>
-  </si>
-  <si>
-    <t>7.1.1.5 *</t>
-  </si>
-  <si>
-    <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
-  </si>
-  <si>
-    <t>7.1.1.6 *</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
-  </si>
-  <si>
-    <t>7.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
-  </si>
-  <si>
-    <t>8.1.1</t>
-  </si>
-  <si>
-    <t>Atmospheric chemistry photo chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the photo chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.overview</t>
-  </si>
-  <si>
-    <t>8.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Number Of Reactions</t>
-  </si>
-  <si>
-    <t>The number of reactions in the photo-chemistry scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
-  </si>
-  <si>
-    <t>8.2.1</t>
-  </si>
-  <si>
-    <t>Photo Chemistry --&gt; Photolysis</t>
-  </si>
-  <si>
-    <t>Photolysis scheme</t>
-  </si>
-  <si>
-    <t>8.2.1.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Offline (clear sky)</t>
-  </si>
-  <si>
-    <t>Offline (with clouds)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.1.2 </t>
-  </si>
-  <si>
-    <t>Environmental Conditions</t>
-  </si>
-  <si>
-    <t>Describe any environmental conditions taken into account by the photolysis scheme (e.g. whether pressure- and temperature-sensitive cross-sections and quantum yields in the photolysis calculations are modified to reflect the modelled conditions.)</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.photolysis.environmental_conditions</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>fully on-line reflecting temperature and pressure for calculating cross-sections and quantum yields.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Watanabe_2011</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Morgenstern_2017</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sudo_2002</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Akiyoshi_2009</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1651,6 +1772,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1742,15 +1877,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1792,7 +1935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1824,9 +1967,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1858,6 +2019,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2033,24 +2212,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2058,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2090,42 +2271,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20.25">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20.25">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20.25">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +2314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2141,7 +2322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -2149,7 +2330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2157,57 +2338,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20.25">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="20.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -2218,23 +2402,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>363</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2242,37 +2426,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2282,56 +2466,56 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
@@ -2339,21 +2523,24 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
@@ -2362,19 +2549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.75" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -2385,7 +2574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -2401,7 +2590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -2409,11 +2598,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -2429,7 +2622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
@@ -2437,39 +2630,95 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="36">
+      <c r="A21" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="36">
+      <c r="A22" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2506,15 +2755,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2522,28 +2771,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>52</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2551,160 +2800,166 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11" t="s">
+    <row r="19" spans="1:32" ht="24" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
+    <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
+    <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AF21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:32" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="24" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="B22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="24" customHeight="1">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
+    <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -2714,21 +2969,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -2738,21 +2993,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -2762,23 +3017,23 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2786,10 +3041,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -2797,10 +3052,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -2808,23 +3063,23 @@
         <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>105</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -2832,85 +3087,85 @@
         <v>43</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>110</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -2920,21 +3175,21 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -2944,21 +3199,21 @@
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -2968,21 +3223,21 @@
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:35" ht="24" customHeight="1">
@@ -2990,21 +3245,21 @@
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="24" customHeight="1">
@@ -3014,61 +3269,61 @@
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="A91" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="24" customHeight="1">
       <c r="B92" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA92" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB92" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD92" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE92" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF92" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG92" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH92" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AA92" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB92" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC92" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD92" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE92" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF92" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG92" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH92" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="AI92" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="24" customHeight="1">
@@ -3076,21 +3331,21 @@
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -3100,21 +3355,21 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -3124,21 +3379,21 @@
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -3148,21 +3403,21 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -3172,21 +3427,21 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="A115" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -3196,21 +3451,21 @@
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3220,21 +3475,21 @@
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="A122" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
@@ -3244,21 +3499,21 @@
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -3268,21 +3523,21 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="A131" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -3292,21 +3547,21 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -3316,23 +3571,23 @@
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -3340,28 +3595,28 @@
         <v>43</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="177.95" customHeight="1">
       <c r="B145" s="11" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -3369,28 +3624,28 @@
         <v>43</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="B150" s="11" t="s">
-        <v>206</v>
+        <v>490</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
@@ -3398,28 +3653,28 @@
         <v>43</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="B155" s="11" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -3427,89 +3682,292 @@
         <v>43</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
       <c r="B159" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
+      <c r="B160" s="11" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AE21</formula1>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B22" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA21:AF21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AE22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA31:AB31</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B136 B132 B128 B124 B120 B116 B112 B108 B104 B100 B88 B80 B76 B72" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B84 B43" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>AA68:AC68</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+      <formula1>AA92:AI92</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
+      <c r="B31" s="11">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AC68</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
-      <formula1>AA92:AI92</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3517,36 +3975,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3557,23 +4017,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>222</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3581,291 +4041,39 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11">
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="10" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3875,10 +4083,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3886,23 +4094,24 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="177.95" customHeight="1">
       <c r="B20" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3911,35 +4120,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AF105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3950,10 +4161,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3961,10 +4172,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3972,26 +4183,26 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3999,21 +4210,21 @@
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -4023,136 +4234,136 @@
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
@@ -4162,90 +4373,93 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>300</v>
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4253,28 +4467,28 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>305</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4282,28 +4496,28 @@
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>310</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -4311,28 +4525,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>315</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -4340,52 +4554,52 @@
         <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>320</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
@@ -4395,101 +4609,101 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AE62" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AE63" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="11" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AA64" s="6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AE64" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="24" customHeight="1">
@@ -4499,70 +4713,70 @@
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD69" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE69" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="11" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AA70" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
@@ -4570,28 +4784,28 @@
         <v>43</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>336</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="24" customHeight="1">
@@ -4599,15 +4813,15 @@
         <v>43</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4615,10 +4829,10 @@
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4626,28 +4840,28 @@
         <v>43</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="11" t="s">
-        <v>343</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4655,41 +4869,41 @@
         <v>43</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>347</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="13" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -4697,28 +4911,28 @@
         <v>43</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>310</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -4726,69 +4940,28 @@
         <v>43</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B24" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA20:AF20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AF21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AF22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AF23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AF24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B71 B61:B64 B29:B32" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA29:AE29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AE30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AE31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AE32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
-      <formula1>AA61:AE61</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AE62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AE63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>AA64:AE64</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>AA69:AE69</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AE70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>AA71:AE71</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4796,35 +4969,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AJ61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4835,23 +5010,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>363</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
@@ -4859,37 +5034,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
@@ -4899,371 +5074,398 @@
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>300</v>
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>515</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
@@ -5273,21 +5475,21 @@
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -5297,21 +5499,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5321,21 +5523,21 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -5345,21 +5547,21 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5369,21 +5571,21 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -5393,21 +5595,21 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5417,21 +5619,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5441,83 +5643,38 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
+      <c r="B61" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B25" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA16:AJ16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>AA17:AJ17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>AA18:AJ18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AJ19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AJ20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AJ21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AJ22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AJ23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AJ24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AJ25</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B49 B45 B41 B37 B33" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B61 B57" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5526,35 +5683,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5565,23 +5724,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -5589,37 +5748,37 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -5629,63 +5788,63 @@
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -5695,101 +5854,101 @@
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
@@ -5799,21 +5958,21 @@
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5823,56 +5982,41 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B18" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>AA16:AC16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>AA17:AC17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>AA18:AC18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B26" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA23:AE23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AE24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AE25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AE26</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B38" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5881,35 +6025,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5920,23 +6066,23 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>363</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5944,26 +6090,26 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5971,39 +6117,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
@@ -6013,336 +6159,336 @@
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ27" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ28" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -6352,21 +6498,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -6376,62 +6522,38 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B29" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA21:AJ21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>AA22:AJ22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AJ23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AJ24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AJ25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AJ26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AJ27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AJ28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AJ29</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B41" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
